--- a/Automation_Framework/TestData/Data.xlsx
+++ b/Automation_Framework/TestData/Data.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A2007402\eclipse-workspace\Automation_Framework\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1D7331-E37E-4EDF-BFBB-930F542481A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2E239117-3B58-4429-BEB5-A33B05E4E276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="23280" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,10 +23,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>reshma.bhonde@gmail.com</t>
+    <t>reshma.bhonde@nvent.com</t>
   </si>
   <si>
-    <t>Vit@l4health</t>
+    <t>nVent@032021</t>
   </si>
 </sst>
 </file>
@@ -362,7 +358,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
